--- a/data/output/Pedido_Semana_07_21022026_maf.xlsx
+++ b/data/output/Pedido_Semana_07_21022026_maf.xlsx
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>6</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U5" s="8" t="n">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U6" s="8" t="n">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" hidden="1">
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="8" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="2" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="2" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>8</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="2" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="2" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="8" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T22" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="8" t="n">
         <v>0</v>
@@ -2367,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23" s="2" t="n">
         <v>9</v>
       </c>
       <c r="T23" s="3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U23" s="8" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S24" s="2" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S25" s="2" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S28" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T28" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U28" s="8" t="n">
         <v>0</v>
@@ -2853,16 +2853,16 @@
         <v>7</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S29" s="2" t="n">
         <v>20</v>
       </c>
       <c r="T29" s="3" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="U29" s="8" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" hidden="1">
@@ -3177,13 +3177,13 @@
         <v>0</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T33" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="8" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S35" s="2" t="n">
         <v>0</v>
@@ -3501,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S37" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T37" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U37" s="8" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S42" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T42" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U42" s="8" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S44" s="2" t="n">
         <v>0</v>
@@ -4230,13 +4230,13 @@
         <v>0</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T46" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="8" t="n">
         <v>0</v>
@@ -4392,13 +4392,13 @@
         <v>0</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S48" s="2" t="n">
         <v>8</v>
       </c>
       <c r="T48" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U48" s="8" t="n">
         <v>0</v>
@@ -4473,13 +4473,13 @@
         <v>0</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S49" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T49" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U49" s="8" t="n">
         <v>0</v>
@@ -4554,13 +4554,13 @@
         <v>0</v>
       </c>
       <c r="R50" s="2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="S50" s="2" t="n">
         <v>24</v>
       </c>
       <c r="T50" s="3" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U50" s="8" t="n">
         <v>0</v>
@@ -4959,7 +4959,7 @@
         <v>3</v>
       </c>
       <c r="R55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" s="2" t="n">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>2</v>
       </c>
       <c r="R56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="2" t="n">
         <v>0</v>
@@ -5121,7 +5121,7 @@
         <v>2</v>
       </c>
       <c r="R57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" s="2" t="n">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="R58" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S58" s="2" t="n">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>7</v>
       </c>
       <c r="R62" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S62" s="2" t="n">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="R63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" s="2" t="n">
         <v>0</v>
@@ -5688,7 +5688,7 @@
         <v>3</v>
       </c>
       <c r="R64" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S64" s="2" t="n">
         <v>0</v>
@@ -5850,7 +5850,7 @@
         <v>2</v>
       </c>
       <c r="R66" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S66" s="2" t="n">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>4</v>
       </c>
       <c r="R67" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S67" s="2" t="n">
         <v>0</v>
@@ -6093,7 +6093,7 @@
         <v>11</v>
       </c>
       <c r="R69" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S69" s="2" t="n">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="C72" s="5" t="n">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73">
